--- a/biology/Zoologie/Aromobates_cannatellai/Aromobates_cannatellai.xlsx
+++ b/biology/Zoologie/Aromobates_cannatellai/Aromobates_cannatellai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aromobates cannatellai est une espèce d'amphibiens de la famille des Aromobatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aromobates cannatellai est une espèce d'amphibiens de la famille des Aromobatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'État de Táchira au Venezuela[1]. Elle se rencontre à Uribante à 1 140 m d'altitude dans la cordillère de Mérida.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'État de Táchira au Venezuela. Elle se rencontre à Uribante à 1 140 m d'altitude dans la cordillère de Mérida.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de David Charles Cannatella[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de David Charles Cannatella.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barrio-Amorós, &amp; Santos, 2012 : A phylogeny for Aromobates (Anura: Dendrobatidae) with description of three new species from the Andes of Venezuela, taxonomic comments on Aromobates saltuensis, A. inflexus, and notes on the conservation status of the genus. Zootaxa, no 3422, p. 1-31.</t>
         </is>
